--- a/data_xlsx/LIBOR_美元_3个月.xlsx
+++ b/data_xlsx/LIBOR_美元_3个月.xlsx
@@ -33482,8 +33482,48 @@
         <v>5.57266</v>
       </c>
     </row>
+    <row r="4176">
+      <c r="A4176" s="1" t="n">
+        <v>45120.0</v>
+      </c>
+      <c r="B4176" s="2" t="n">
+        <v>5.56957</v>
+      </c>
+    </row>
     <row r="4177">
-      <c r="A4177" s="3" t="inlineStr">
+      <c r="A4177" s="1" t="n">
+        <v>45121.0</v>
+      </c>
+      <c r="B4177" s="2" t="n">
+        <v>5.5715</v>
+      </c>
+    </row>
+    <row r="4178">
+      <c r="A4178" s="1" t="n">
+        <v>45124.0</v>
+      </c>
+      <c r="B4178" s="2" t="n">
+        <v>5.58173</v>
+      </c>
+    </row>
+    <row r="4179">
+      <c r="A4179" s="1" t="n">
+        <v>45125.0</v>
+      </c>
+      <c r="B4179" s="2" t="n">
+        <v>5.58775</v>
+      </c>
+    </row>
+    <row r="4180">
+      <c r="A4180" s="1" t="n">
+        <v>45126.0</v>
+      </c>
+      <c r="B4180" s="2" t="n">
+        <v>5.59513</v>
+      </c>
+    </row>
+    <row r="4182">
+      <c r="A4182" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
